--- a/Planning Report/application sprint planner sprint5 20.01.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 20.01.20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD0870-59DB-41F3-B52C-54F942C88FB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082AD73E-7918-46C4-BD82-50B0E900734D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1560" windowWidth="24345" windowHeight="14040" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32385" yWindow="1140" windowWidth="24345" windowHeight="14040" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="124">
   <si>
     <t>Create a Gantt Chart in this worksheet.
 Enter title of this project in cell B1. 
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>Survey Breakdown</t>
+  </si>
+  <si>
+    <t>User documentation</t>
+  </si>
+  <si>
+    <t>Technical documentation</t>
+  </si>
+  <si>
+    <t>Journal review</t>
   </si>
 </sst>
 </file>
@@ -1493,6 +1502,40 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="88">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2930,40 +2973,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3285,10 +3294,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -3568,8 +3577,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A109" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23936,227 +23945,227 @@
       </c>
       <c r="I104" s="26"/>
       <c r="J104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",J$5&gt;=$G104,J$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",J$5&gt;=$G104,J$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ref="J104:S106" ca="1" si="57">IF(AND($D104="Goal",J$5&gt;=$G104,J$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",J$5&gt;=$G104,J$5&lt;=$G104+$H104-1),1,""))</f>
         <v/>
       </c>
       <c r="K104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",K$5&gt;=$G104,K$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",K$5&gt;=$G104,K$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="L104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",L$5&gt;=$G104,L$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",L$5&gt;=$G104,L$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="M104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",M$5&gt;=$G104,M$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",M$5&gt;=$G104,M$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="N104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",N$5&gt;=$G104,N$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",N$5&gt;=$G104,N$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="O104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",O$5&gt;=$G104,O$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",O$5&gt;=$G104,O$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="P104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",P$5&gt;=$G104,P$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",P$5&gt;=$G104,P$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Q104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",Q$5&gt;=$G104,Q$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",Q$5&gt;=$G104,Q$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="R104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",R$5&gt;=$G104,R$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",R$5&gt;=$G104,R$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="S104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",S$5&gt;=$G104,S$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",S$5&gt;=$G104,S$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="T104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",T$5&gt;=$G104,T$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",T$5&gt;=$G104,T$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="U104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",U$5&gt;=$G104,U$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",U$5&gt;=$G104,U$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="V104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",V$5&gt;=$G104,V$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",V$5&gt;=$G104,V$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="W104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",W$5&gt;=$G104,W$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",W$5&gt;=$G104,W$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="X104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",X$5&gt;=$G104,X$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",X$5&gt;=$G104,X$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="Y104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",Y$5&gt;=$G104,Y$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",Y$5&gt;=$G104,Y$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="Z104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",Z$5&gt;=$G104,Z$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",Z$5&gt;=$G104,Z$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AA104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AA$5&gt;=$G104,AA$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AA$5&gt;=$G104,AA$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AB104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AB$5&gt;=$G104,AB$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AB$5&gt;=$G104,AB$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AC104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AC$5&gt;=$G104,AC$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AC$5&gt;=$G104,AC$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AD104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AD$5&gt;=$G104,AD$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AD$5&gt;=$G104,AD$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AE104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AE$5&gt;=$G104,AE$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AE$5&gt;=$G104,AE$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AF104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AF$5&gt;=$G104,AF$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AF$5&gt;=$G104,AF$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AG104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AG$5&gt;=$G104,AG$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AG$5&gt;=$G104,AG$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AH104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AH$5&gt;=$G104,AH$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AH$5&gt;=$G104,AH$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AI104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AI$5&gt;=$G104,AI$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AI$5&gt;=$G104,AI$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AJ104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AJ$5&gt;=$G104,AJ$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AJ$5&gt;=$G104,AJ$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AK104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AK$5&gt;=$G104,AK$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AK$5&gt;=$G104,AK$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AL104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AL$5&gt;=$G104,AL$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AL$5&gt;=$G104,AL$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AM104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AM$5&gt;=$G104,AM$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AM$5&gt;=$G104,AM$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AN104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AN$5&gt;=$G104,AN$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AN$5&gt;=$G104,AN$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AO$5&gt;=$G104,AO$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AO$5&gt;=$G104,AO$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AP104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AP$5&gt;=$G104,AP$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AP$5&gt;=$G104,AP$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AQ104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AQ$5&gt;=$G104,AQ$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AQ$5&gt;=$G104,AQ$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AR104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AR$5&gt;=$G104,AR$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AR$5&gt;=$G104,AR$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AS104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AS$5&gt;=$G104,AS$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AS$5&gt;=$G104,AS$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AT104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AT$5&gt;=$G104,AT$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AT$5&gt;=$G104,AT$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AU104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AU$5&gt;=$G104,AU$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AU$5&gt;=$G104,AU$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AV104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AV$5&gt;=$G104,AV$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AV$5&gt;=$G104,AV$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AW104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AW$5&gt;=$G104,AW$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AW$5&gt;=$G104,AW$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AX104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AX$5&gt;=$G104,AX$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AX$5&gt;=$G104,AX$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AY104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AY$5&gt;=$G104,AY$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AY$5&gt;=$G104,AY$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AZ104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",AZ$5&gt;=$G104,AZ$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",AZ$5&gt;=$G104,AZ$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BA104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BA$5&gt;=$G104,BA$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BA$5&gt;=$G104,BA$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BB104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BB$5&gt;=$G104,BB$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BB$5&gt;=$G104,BB$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BC104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BC$5&gt;=$G104,BC$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BC$5&gt;=$G104,BC$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BD104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BD$5&gt;=$G104,BD$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BD$5&gt;=$G104,BD$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BE104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BE$5&gt;=$G104,BE$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BE$5&gt;=$G104,BE$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BF104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BF$5&gt;=$G104,BF$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BF$5&gt;=$G104,BF$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BG104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BG$5&gt;=$G104,BG$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BG$5&gt;=$G104,BG$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BH104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BH$5&gt;=$G104,BH$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BH$5&gt;=$G104,BH$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BI104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BI$5&gt;=$G104,BI$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BI$5&gt;=$G104,BI$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BJ104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BJ$5&gt;=$G104,BJ$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BJ$5&gt;=$G104,BJ$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BK104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BK$5&gt;=$G104,BK$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BK$5&gt;=$G104,BK$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BL104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BL$5&gt;=$G104,BL$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BL$5&gt;=$G104,BL$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BM104" s="38" t="str">
-        <f ca="1">IF(AND($D104="Goal",BM$5&gt;=$G104,BM$5&lt;=$G104+$H104-1),2,IF(AND($D104="Milestone",BM$5&gt;=$G104,BM$5&lt;=$G104+$H104-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
     </row>
@@ -24181,227 +24190,227 @@
       </c>
       <c r="I105" s="26"/>
       <c r="J105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",J$5&gt;=$G105,J$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",J$5&gt;=$G105,J$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="K105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",K$5&gt;=$G105,K$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",K$5&gt;=$G105,K$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="L105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",L$5&gt;=$G105,L$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",L$5&gt;=$G105,L$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="M105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",M$5&gt;=$G105,M$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",M$5&gt;=$G105,M$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="N105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",N$5&gt;=$G105,N$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",N$5&gt;=$G105,N$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="O105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",O$5&gt;=$G105,O$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",O$5&gt;=$G105,O$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="P105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",P$5&gt;=$G105,P$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",P$5&gt;=$G105,P$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Q105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",Q$5&gt;=$G105,Q$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",Q$5&gt;=$G105,Q$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="R105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",R$5&gt;=$G105,R$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",R$5&gt;=$G105,R$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="S105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",S$5&gt;=$G105,S$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",S$5&gt;=$G105,S$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="T105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",T$5&gt;=$G105,T$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",T$5&gt;=$G105,T$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="U105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",U$5&gt;=$G105,U$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",U$5&gt;=$G105,U$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="V105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",V$5&gt;=$G105,V$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",V$5&gt;=$G105,V$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="W105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",W$5&gt;=$G105,W$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",W$5&gt;=$G105,W$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="X105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",X$5&gt;=$G105,X$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",X$5&gt;=$G105,X$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="Y105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",Y$5&gt;=$G105,Y$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",Y$5&gt;=$G105,Y$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="Z105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",Z$5&gt;=$G105,Z$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",Z$5&gt;=$G105,Z$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AA105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AA$5&gt;=$G105,AA$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AA$5&gt;=$G105,AA$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AB105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AB$5&gt;=$G105,AB$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AB$5&gt;=$G105,AB$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AC105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AC$5&gt;=$G105,AC$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AC$5&gt;=$G105,AC$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AD105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AD$5&gt;=$G105,AD$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AD$5&gt;=$G105,AD$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AE105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AE$5&gt;=$G105,AE$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AE$5&gt;=$G105,AE$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AF105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AF$5&gt;=$G105,AF$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AF$5&gt;=$G105,AF$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AG105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AG$5&gt;=$G105,AG$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AG$5&gt;=$G105,AG$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AH105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AH$5&gt;=$G105,AH$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AH$5&gt;=$G105,AH$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AI105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AI$5&gt;=$G105,AI$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AI$5&gt;=$G105,AI$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AJ105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AJ$5&gt;=$G105,AJ$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AJ$5&gt;=$G105,AJ$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AK105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AK$5&gt;=$G105,AK$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AK$5&gt;=$G105,AK$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AL105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AL$5&gt;=$G105,AL$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AL$5&gt;=$G105,AL$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AM105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AM$5&gt;=$G105,AM$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AM$5&gt;=$G105,AM$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AN105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AN$5&gt;=$G105,AN$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AN$5&gt;=$G105,AN$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AO$5&gt;=$G105,AO$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AO$5&gt;=$G105,AO$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AP105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AP$5&gt;=$G105,AP$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AP$5&gt;=$G105,AP$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AQ105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AQ$5&gt;=$G105,AQ$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AQ$5&gt;=$G105,AQ$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AR105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AR$5&gt;=$G105,AR$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AR$5&gt;=$G105,AR$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AS105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AS$5&gt;=$G105,AS$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AS$5&gt;=$G105,AS$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AT105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AT$5&gt;=$G105,AT$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AT$5&gt;=$G105,AT$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AU105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AU$5&gt;=$G105,AU$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AU$5&gt;=$G105,AU$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AV105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AV$5&gt;=$G105,AV$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AV$5&gt;=$G105,AV$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AW105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AW$5&gt;=$G105,AW$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AW$5&gt;=$G105,AW$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AX105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AX$5&gt;=$G105,AX$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AX$5&gt;=$G105,AX$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AY105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AY$5&gt;=$G105,AY$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AY$5&gt;=$G105,AY$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AZ105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",AZ$5&gt;=$G105,AZ$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",AZ$5&gt;=$G105,AZ$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BA105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BA$5&gt;=$G105,BA$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BA$5&gt;=$G105,BA$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BB105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BB$5&gt;=$G105,BB$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BB$5&gt;=$G105,BB$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BC105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BC$5&gt;=$G105,BC$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BC$5&gt;=$G105,BC$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BD105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BD$5&gt;=$G105,BD$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BD$5&gt;=$G105,BD$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BE105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BE$5&gt;=$G105,BE$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BE$5&gt;=$G105,BE$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BF105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BF$5&gt;=$G105,BF$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BF$5&gt;=$G105,BF$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BG105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BG$5&gt;=$G105,BG$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BG$5&gt;=$G105,BG$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BH105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BH$5&gt;=$G105,BH$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BH$5&gt;=$G105,BH$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BI105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BI$5&gt;=$G105,BI$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BI$5&gt;=$G105,BI$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BJ105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BJ$5&gt;=$G105,BJ$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BJ$5&gt;=$G105,BJ$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BK105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BK$5&gt;=$G105,BK$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BK$5&gt;=$G105,BK$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BL105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BL$5&gt;=$G105,BL$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BL$5&gt;=$G105,BL$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BM105" s="38" t="str">
-        <f ca="1">IF(AND($D105="Goal",BM$5&gt;=$G105,BM$5&lt;=$G105+$H105-1),2,IF(AND($D105="Milestone",BM$5&gt;=$G105,BM$5&lt;=$G105+$H105-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
     </row>
@@ -24426,227 +24435,227 @@
       </c>
       <c r="I106" s="26"/>
       <c r="J106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",J$5&gt;=$G106,J$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",J$5&gt;=$G106,J$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="K106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",K$5&gt;=$G106,K$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",K$5&gt;=$G106,K$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="L106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",L$5&gt;=$G106,L$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",L$5&gt;=$G106,L$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="M106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",M$5&gt;=$G106,M$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",M$5&gt;=$G106,M$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="N106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",N$5&gt;=$G106,N$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",N$5&gt;=$G106,N$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="O106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",O$5&gt;=$G106,O$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",O$5&gt;=$G106,O$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="P106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",P$5&gt;=$G106,P$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",P$5&gt;=$G106,P$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Q106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",Q$5&gt;=$G106,Q$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",Q$5&gt;=$G106,Q$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="R106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",R$5&gt;=$G106,R$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",R$5&gt;=$G106,R$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="S106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",S$5&gt;=$G106,S$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",S$5&gt;=$G106,S$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="T106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",T$5&gt;=$G106,T$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",T$5&gt;=$G106,T$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="U106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",U$5&gt;=$G106,U$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",U$5&gt;=$G106,U$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="V106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",V$5&gt;=$G106,V$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",V$5&gt;=$G106,V$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="W106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",W$5&gt;=$G106,W$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",W$5&gt;=$G106,W$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="X106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",X$5&gt;=$G106,X$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",X$5&gt;=$G106,X$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="Y106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",Y$5&gt;=$G106,Y$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",Y$5&gt;=$G106,Y$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="Z106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",Z$5&gt;=$G106,Z$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",Z$5&gt;=$G106,Z$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AA106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AA$5&gt;=$G106,AA$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AA$5&gt;=$G106,AA$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AB106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AB$5&gt;=$G106,AB$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AB$5&gt;=$G106,AB$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AC106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AC$5&gt;=$G106,AC$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AC$5&gt;=$G106,AC$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AD106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AD$5&gt;=$G106,AD$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AD$5&gt;=$G106,AD$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AE106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AE$5&gt;=$G106,AE$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AE$5&gt;=$G106,AE$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AF106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AF$5&gt;=$G106,AF$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AF$5&gt;=$G106,AF$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AG106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AG$5&gt;=$G106,AG$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AG$5&gt;=$G106,AG$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AH106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AH$5&gt;=$G106,AH$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AH$5&gt;=$G106,AH$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AI106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AI$5&gt;=$G106,AI$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AI$5&gt;=$G106,AI$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AJ106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AJ$5&gt;=$G106,AJ$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AJ$5&gt;=$G106,AJ$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AK106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AK$5&gt;=$G106,AK$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AK$5&gt;=$G106,AK$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AL106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AL$5&gt;=$G106,AL$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AL$5&gt;=$G106,AL$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AM106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AM$5&gt;=$G106,AM$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AM$5&gt;=$G106,AM$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AN106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AN$5&gt;=$G106,AN$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AN$5&gt;=$G106,AN$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AO$5&gt;=$G106,AO$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AO$5&gt;=$G106,AO$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AP106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AP$5&gt;=$G106,AP$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AP$5&gt;=$G106,AP$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AQ106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AQ$5&gt;=$G106,AQ$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AQ$5&gt;=$G106,AQ$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AR106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AR$5&gt;=$G106,AR$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AR$5&gt;=$G106,AR$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AS106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AS$5&gt;=$G106,AS$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AS$5&gt;=$G106,AS$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AT106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AT$5&gt;=$G106,AT$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AT$5&gt;=$G106,AT$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AU106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AU$5&gt;=$G106,AU$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AU$5&gt;=$G106,AU$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AV106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AV$5&gt;=$G106,AV$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AV$5&gt;=$G106,AV$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AW106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AW$5&gt;=$G106,AW$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AW$5&gt;=$G106,AW$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AX106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AX$5&gt;=$G106,AX$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AX$5&gt;=$G106,AX$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AY106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AY$5&gt;=$G106,AY$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AY$5&gt;=$G106,AY$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AZ106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",AZ$5&gt;=$G106,AZ$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AZ$5&gt;=$G106,AZ$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BA106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BA$5&gt;=$G106,BA$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BA$5&gt;=$G106,BA$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BB106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BB$5&gt;=$G106,BB$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BB$5&gt;=$G106,BB$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BC106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BC$5&gt;=$G106,BC$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BC$5&gt;=$G106,BC$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BD106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BD$5&gt;=$G106,BD$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BD$5&gt;=$G106,BD$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BE106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BE$5&gt;=$G106,BE$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BE$5&gt;=$G106,BE$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BF106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BF$5&gt;=$G106,BF$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BF$5&gt;=$G106,BF$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BG106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BG$5&gt;=$G106,BG$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BG$5&gt;=$G106,BG$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BH106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BH$5&gt;=$G106,BH$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BH$5&gt;=$G106,BH$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BI106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BI$5&gt;=$G106,BI$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BI$5&gt;=$G106,BI$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BJ106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BJ$5&gt;=$G106,BJ$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BJ$5&gt;=$G106,BJ$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BK106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BK$5&gt;=$G106,BK$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BK$5&gt;=$G106,BK$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BL106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BL$5&gt;=$G106,BL$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BL$5&gt;=$G106,BL$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BM106" s="38" t="str">
-        <f ca="1">IF(AND($D106="Goal",BM$5&gt;=$G106,BM$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",BM$5&gt;=$G106,BM$5&lt;=$G106+$H106-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
     </row>
@@ -25620,7 +25629,9 @@
     </row>
     <row r="111" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
-      <c r="B111" s="41"/>
+      <c r="B111" s="41" t="s">
+        <v>121</v>
+      </c>
       <c r="C111" s="53"/>
       <c r="D111" s="34"/>
       <c r="E111" s="34"/>
@@ -25855,7 +25866,9 @@
     </row>
     <row r="112" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
-      <c r="B112" s="41"/>
+      <c r="B112" s="41" t="s">
+        <v>122</v>
+      </c>
       <c r="C112" s="53"/>
       <c r="D112" s="34"/>
       <c r="E112" s="34"/>
@@ -26090,7 +26103,9 @@
     </row>
     <row r="113" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
-      <c r="B113" s="41"/>
+      <c r="B113" s="41" t="s">
+        <v>123</v>
+      </c>
       <c r="C113" s="53"/>
       <c r="D113" s="34"/>
       <c r="E113" s="34"/>
@@ -27675,227 +27690,227 @@
       </c>
       <c r="I121" s="26"/>
       <c r="J121" s="38" t="str">
-        <f t="shared" ref="J121:S123" ca="1" si="57">IF(AND($D121="Goal",J$5&gt;=$G121,J$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",J$5&gt;=$G121,J$5&lt;=$G121+$H121-1),1,""))</f>
+        <f t="shared" ref="J121:S123" ca="1" si="58">IF(AND($D121="Goal",J$5&gt;=$G121,J$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",J$5&gt;=$G121,J$5&lt;=$G121+$H121-1),1,""))</f>
         <v/>
       </c>
       <c r="K121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="L121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="M121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="N121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="O121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="P121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="Q121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="R121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="S121" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="T121" s="38" t="str">
-        <f t="shared" ref="T121:AC123" ca="1" si="58">IF(AND($D121="Goal",T$5&gt;=$G121,T$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",T$5&gt;=$G121,T$5&lt;=$G121+$H121-1),1,""))</f>
+        <f t="shared" ref="T121:AC123" ca="1" si="59">IF(AND($D121="Goal",T$5&gt;=$G121,T$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",T$5&gt;=$G121,T$5&lt;=$G121+$H121-1),1,""))</f>
         <v/>
       </c>
       <c r="U121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="V121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="W121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="X121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="Y121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="Z121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AA121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AB121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AC121" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AD121" s="38" t="str">
-        <f t="shared" ref="AD121:AM123" ca="1" si="59">IF(AND($D121="Goal",AD$5&gt;=$G121,AD$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",AD$5&gt;=$G121,AD$5&lt;=$G121+$H121-1),1,""))</f>
+        <f t="shared" ref="AD121:AM123" ca="1" si="60">IF(AND($D121="Goal",AD$5&gt;=$G121,AD$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",AD$5&gt;=$G121,AD$5&lt;=$G121+$H121-1),1,""))</f>
         <v/>
       </c>
       <c r="AE121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AF121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AG121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AH121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AI121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AJ121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AK121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AL121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AM121" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AN121" s="38" t="str">
-        <f t="shared" ref="AN121:AW123" ca="1" si="60">IF(AND($D121="Goal",AN$5&gt;=$G121,AN$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",AN$5&gt;=$G121,AN$5&lt;=$G121+$H121-1),1,""))</f>
+        <f t="shared" ref="AN121:AW123" ca="1" si="61">IF(AND($D121="Goal",AN$5&gt;=$G121,AN$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",AN$5&gt;=$G121,AN$5&lt;=$G121+$H121-1),1,""))</f>
         <v/>
       </c>
       <c r="AO121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AP121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AQ121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AR121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AS121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AT121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AU121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AV121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AW121" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AX121" s="38" t="str">
-        <f t="shared" ref="AX121:BG123" ca="1" si="61">IF(AND($D121="Goal",AX$5&gt;=$G121,AX$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",AX$5&gt;=$G121,AX$5&lt;=$G121+$H121-1),1,""))</f>
+        <f t="shared" ref="AX121:BG123" ca="1" si="62">IF(AND($D121="Goal",AX$5&gt;=$G121,AX$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",AX$5&gt;=$G121,AX$5&lt;=$G121+$H121-1),1,""))</f>
         <v/>
       </c>
       <c r="AY121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AZ121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BA121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BB121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BC121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BD121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BE121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BF121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BG121" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BH121" s="38" t="str">
-        <f t="shared" ref="BH121:BM123" ca="1" si="62">IF(AND($D121="Goal",BH$5&gt;=$G121,BH$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",BH$5&gt;=$G121,BH$5&lt;=$G121+$H121-1),1,""))</f>
+        <f t="shared" ref="BH121:BM123" ca="1" si="63">IF(AND($D121="Goal",BH$5&gt;=$G121,BH$5&lt;=$G121+$H121-1),2,IF(AND($D121="Milestone",BH$5&gt;=$G121,BH$5&lt;=$G121+$H121-1),1,""))</f>
         <v/>
       </c>
       <c r="BI121" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BJ121" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BK121" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BL121" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BM121" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
     </row>
@@ -27910,227 +27925,227 @@
       <c r="H122" s="33"/>
       <c r="I122" s="26"/>
       <c r="J122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="K122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="L122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="M122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="N122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="O122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="P122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="Q122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="R122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="S122" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="T122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="U122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="V122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="W122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="X122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="Y122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="Z122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AA122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AB122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AC122" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AD122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AE122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AF122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AG122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AH122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AI122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AJ122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AK122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AL122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AM122" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AN122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AO122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AP122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AQ122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AR122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AS122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AT122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AU122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AV122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AW122" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AX122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AY122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AZ122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BA122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BB122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BC122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BD122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BE122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BF122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BG122" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BH122" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BI122" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BJ122" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BK122" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BL122" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BM122" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
     </row>
@@ -28155,227 +28170,227 @@
       </c>
       <c r="I123" s="26"/>
       <c r="J123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="K123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="L123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="M123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="N123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="O123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="P123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="Q123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="R123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="S123" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="T123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="U123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="V123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="W123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="X123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="Y123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="Z123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AA123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AB123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AC123" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="AD123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AE123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AF123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AG123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AH123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AI123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AJ123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AK123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AL123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AM123" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AN123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AO123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AP123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AQ123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AR123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AS123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AT123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AU123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AV123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AW123" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AX123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AY123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AZ123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BA123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BB123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BC123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BD123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BE123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BF123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BG123" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BH123" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BI123" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BJ123" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BK123" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BL123" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BM123" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
     </row>
@@ -28396,227 +28411,227 @@
       <c r="H124" s="33"/>
       <c r="I124" s="26"/>
       <c r="J124" s="38" t="str">
-        <f t="shared" ref="J124:S132" ca="1" si="63">IF(AND($D124="Goal",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="J124:S132" ca="1" si="64">IF(AND($D124="Goal",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="K124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S124" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T124" s="38" t="str">
-        <f t="shared" ref="T124:AC132" ca="1" si="64">IF(AND($D124="Goal",T$5&gt;=$G124,T$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",T$5&gt;=$G124,T$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="T124:AC132" ca="1" si="65">IF(AND($D124="Goal",T$5&gt;=$G124,T$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",T$5&gt;=$G124,T$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="U124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC124" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD124" s="38" t="str">
-        <f t="shared" ref="AD124:AM132" ca="1" si="65">IF(AND($D124="Goal",AD$5&gt;=$G124,AD$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",AD$5&gt;=$G124,AD$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="AD124:AM132" ca="1" si="66">IF(AND($D124="Goal",AD$5&gt;=$G124,AD$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",AD$5&gt;=$G124,AD$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="AE124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM124" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN124" s="38" t="str">
-        <f t="shared" ref="AN124:AW132" ca="1" si="66">IF(AND($D124="Goal",AN$5&gt;=$G124,AN$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",AN$5&gt;=$G124,AN$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="AN124:AW132" ca="1" si="67">IF(AND($D124="Goal",AN$5&gt;=$G124,AN$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",AN$5&gt;=$G124,AN$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="AO124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW124" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX124" s="38" t="str">
-        <f t="shared" ref="AX124:BG132" ca="1" si="67">IF(AND($D124="Goal",AX$5&gt;=$G124,AX$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",AX$5&gt;=$G124,AX$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="AX124:BG132" ca="1" si="68">IF(AND($D124="Goal",AX$5&gt;=$G124,AX$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",AX$5&gt;=$G124,AX$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="AY124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG124" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH124" s="38" t="str">
-        <f t="shared" ref="BH124:BM132" ca="1" si="68">IF(AND($D124="Goal",BH$5&gt;=$G124,BH$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",BH$5&gt;=$G124,BH$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="BH124:BM132" ca="1" si="69">IF(AND($D124="Goal",BH$5&gt;=$G124,BH$5&lt;=$G124+$H124-1),2,IF(AND($D124="Milestone",BH$5&gt;=$G124,BH$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="BI124" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ124" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK124" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL124" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM124" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -28631,227 +28646,227 @@
       <c r="H125" s="33"/>
       <c r="I125" s="26"/>
       <c r="J125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S125" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC125" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM125" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW125" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG125" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH125" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI125" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ125" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK125" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL125" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM125" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -28874,227 +28889,227 @@
       </c>
       <c r="I126" s="26"/>
       <c r="J126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S126" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC126" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM126" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW126" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG126" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH126" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI126" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ126" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK126" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL126" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM126" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -29115,227 +29130,227 @@
       </c>
       <c r="I127" s="26"/>
       <c r="J127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S127" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC127" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM127" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW127" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG127" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH127" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI127" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ127" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK127" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL127" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM127" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -29356,227 +29371,227 @@
       </c>
       <c r="I128" s="26"/>
       <c r="J128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S128" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC128" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM128" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW128" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG128" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH128" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI128" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ128" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK128" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL128" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM128" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -29597,227 +29612,227 @@
       </c>
       <c r="I129" s="26"/>
       <c r="J129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S129" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC129" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM129" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW129" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG129" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH129" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI129" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ129" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK129" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL129" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM129" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -29838,227 +29853,227 @@
       </c>
       <c r="I130" s="26"/>
       <c r="J130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW130" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG130" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH130" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI130" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ130" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK130" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL130" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM130" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -30083,227 +30098,227 @@
       </c>
       <c r="I131" s="26"/>
       <c r="J131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW131" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG131" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH131" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI131" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ131" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK131" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL131" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM131" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -30328,227 +30343,227 @@
       </c>
       <c r="I132" s="26"/>
       <c r="J132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="K132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="U132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="V132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="W132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="X132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Y132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="Z132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AA132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AB132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AC132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AD132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AO132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AP132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AQ132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW132" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AY132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AZ132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BA132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BB132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BC132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BD132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BE132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BF132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BG132" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="BH132" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI132" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ132" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK132" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL132" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM132" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
@@ -30650,227 +30665,227 @@
       </c>
       <c r="I134" s="26"/>
       <c r="J134" s="38" t="str">
-        <f t="shared" ref="J134:AO134" ca="1" si="69">IF(AND($D134="Goal",J$5&gt;=$G134,J$5&lt;=$G134+$H134-1),2,IF(AND($D134="Milestone",J$5&gt;=$G134,J$5&lt;=$G134+$H134-1),1,""))</f>
+        <f t="shared" ref="J134:AO134" ca="1" si="70">IF(AND($D134="Goal",J$5&gt;=$G134,J$5&lt;=$G134+$H134-1),2,IF(AND($D134="Milestone",J$5&gt;=$G134,J$5&lt;=$G134+$H134-1),1,""))</f>
         <v/>
       </c>
       <c r="K134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="U134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="V134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="W134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="X134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Y134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Z134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AA134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AB134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AC134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AD134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AE134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AF134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AG134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AH134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AI134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AJ134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AK134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AL134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AM134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AN134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AO134" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AP134" s="38" t="str">
-        <f t="shared" ref="AP134:BM134" ca="1" si="70">IF(AND($D134="Goal",AP$5&gt;=$G134,AP$5&lt;=$G134+$H134-1),2,IF(AND($D134="Milestone",AP$5&gt;=$G134,AP$5&lt;=$G134+$H134-1),1,""))</f>
+        <f t="shared" ref="AP134:BM134" ca="1" si="71">IF(AND($D134="Goal",AP$5&gt;=$G134,AP$5&lt;=$G134+$H134-1),2,IF(AND($D134="Milestone",AP$5&gt;=$G134,AP$5&lt;=$G134+$H134-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AR134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AS134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AU134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AV134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AW134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AX134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AY134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AZ134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BA134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BB134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BC134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BD134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BE134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BF134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BG134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BH134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BI134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BJ134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BK134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BL134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="BM134" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
     </row>
@@ -31273,227 +31288,227 @@
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="38" t="str">
-        <f t="shared" ref="J137:S138" ca="1" si="71">IF(AND($D137="Goal",J$5&gt;=$G137,J$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",J$5&gt;=$G137,J$5&lt;=$G137+$H137-1),1,""))</f>
+        <f t="shared" ref="J137:S138" ca="1" si="72">IF(AND($D137="Goal",J$5&gt;=$G137,J$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",J$5&gt;=$G137,J$5&lt;=$G137+$H137-1),1,""))</f>
         <v/>
       </c>
       <c r="K137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="L137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="M137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="N137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="O137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="P137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="Q137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="R137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="S137" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="T137" s="38" t="str">
-        <f t="shared" ref="T137:AC138" ca="1" si="72">IF(AND($D137="Goal",T$5&gt;=$G137,T$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",T$5&gt;=$G137,T$5&lt;=$G137+$H137-1),1,""))</f>
+        <f t="shared" ref="T137:AC138" ca="1" si="73">IF(AND($D137="Goal",T$5&gt;=$G137,T$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",T$5&gt;=$G137,T$5&lt;=$G137+$H137-1),1,""))</f>
         <v/>
       </c>
       <c r="U137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="V137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="W137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="X137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="Y137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="Z137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AA137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AB137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AC137" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AD137" s="38" t="str">
-        <f t="shared" ref="AD137:AM138" ca="1" si="73">IF(AND($D137="Goal",AD$5&gt;=$G137,AD$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",AD$5&gt;=$G137,AD$5&lt;=$G137+$H137-1),1,""))</f>
+        <f t="shared" ref="AD137:AM138" ca="1" si="74">IF(AND($D137="Goal",AD$5&gt;=$G137,AD$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",AD$5&gt;=$G137,AD$5&lt;=$G137+$H137-1),1,""))</f>
         <v/>
       </c>
       <c r="AE137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AF137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AG137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AH137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AI137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AJ137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AK137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AL137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AM137" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AN137" s="38" t="str">
-        <f t="shared" ref="AN137:AW138" ca="1" si="74">IF(AND($D137="Goal",AN$5&gt;=$G137,AN$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",AN$5&gt;=$G137,AN$5&lt;=$G137+$H137-1),1,""))</f>
+        <f t="shared" ref="AN137:AW138" ca="1" si="75">IF(AND($D137="Goal",AN$5&gt;=$G137,AN$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",AN$5&gt;=$G137,AN$5&lt;=$G137+$H137-1),1,""))</f>
         <v/>
       </c>
       <c r="AO137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AP137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AQ137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AR137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AS137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AT137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AU137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AV137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AW137" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AX137" s="38" t="str">
-        <f t="shared" ref="AX137:BG138" ca="1" si="75">IF(AND($D137="Goal",AX$5&gt;=$G137,AX$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",AX$5&gt;=$G137,AX$5&lt;=$G137+$H137-1),1,""))</f>
+        <f t="shared" ref="AX137:BG138" ca="1" si="76">IF(AND($D137="Goal",AX$5&gt;=$G137,AX$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",AX$5&gt;=$G137,AX$5&lt;=$G137+$H137-1),1,""))</f>
         <v/>
       </c>
       <c r="AY137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AZ137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BA137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BB137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BC137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BD137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BE137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BF137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BG137" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BH137" s="38" t="str">
-        <f t="shared" ref="BH137:BM138" ca="1" si="76">IF(AND($D137="Goal",BH$5&gt;=$G137,BH$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",BH$5&gt;=$G137,BH$5&lt;=$G137+$H137-1),1,""))</f>
+        <f t="shared" ref="BH137:BM138" ca="1" si="77">IF(AND($D137="Goal",BH$5&gt;=$G137,BH$5&lt;=$G137+$H137-1),2,IF(AND($D137="Milestone",BH$5&gt;=$G137,BH$5&lt;=$G137+$H137-1),1,""))</f>
         <v/>
       </c>
       <c r="BI137" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BJ137" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BK137" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BL137" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BM137" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
     </row>
@@ -31518,227 +31533,227 @@
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="K138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="L138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="M138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="N138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="O138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="P138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="Q138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="R138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="S138" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="T138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="U138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="V138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="W138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="X138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="Y138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="Z138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AA138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AB138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AC138" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AD138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AE138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AF138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AG138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AH138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AI138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AJ138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AK138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AL138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AM138" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AN138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AO138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AP138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AQ138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AR138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AS138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AT138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AU138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AV138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AW138" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="AX138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AY138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AZ138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BA138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BB138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BC138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BD138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BE138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BF138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BG138" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="BH138" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BI138" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BJ138" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BK138" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BL138" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BM138" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
     </row>
@@ -32016,227 +32031,227 @@
       <c r="H141" s="33"/>
       <c r="I141" s="26"/>
       <c r="J141" s="38" t="str">
-        <f t="shared" ref="J141:S144" ca="1" si="77">IF(AND($D141="Goal",J$5&gt;=$G141,J$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",J$5&gt;=$G141,J$5&lt;=$G141+$H141-1),1,""))</f>
+        <f t="shared" ref="J141:S144" ca="1" si="78">IF(AND($D141="Goal",J$5&gt;=$G141,J$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",J$5&gt;=$G141,J$5&lt;=$G141+$H141-1),1,""))</f>
         <v/>
       </c>
       <c r="K141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="M141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="N141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="O141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="P141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="Q141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="R141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="S141" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="T141" s="38" t="str">
-        <f t="shared" ref="T141:AC144" ca="1" si="78">IF(AND($D141="Goal",T$5&gt;=$G141,T$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",T$5&gt;=$G141,T$5&lt;=$G141+$H141-1),1,""))</f>
+        <f t="shared" ref="T141:AC144" ca="1" si="79">IF(AND($D141="Goal",T$5&gt;=$G141,T$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",T$5&gt;=$G141,T$5&lt;=$G141+$H141-1),1,""))</f>
         <v/>
       </c>
       <c r="U141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="V141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="W141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="X141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Y141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Z141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AA141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AB141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AC141" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AD141" s="38" t="str">
-        <f t="shared" ref="AD141:AM144" ca="1" si="79">IF(AND($D141="Goal",AD$5&gt;=$G141,AD$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",AD$5&gt;=$G141,AD$5&lt;=$G141+$H141-1),1,""))</f>
+        <f t="shared" ref="AD141:AM144" ca="1" si="80">IF(AND($D141="Goal",AD$5&gt;=$G141,AD$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",AD$5&gt;=$G141,AD$5&lt;=$G141+$H141-1),1,""))</f>
         <v/>
       </c>
       <c r="AE141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AF141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AG141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AH141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AI141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AJ141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AK141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AL141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AM141" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AN141" s="38" t="str">
-        <f t="shared" ref="AN141:AW144" ca="1" si="80">IF(AND($D141="Goal",AN$5&gt;=$G141,AN$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",AN$5&gt;=$G141,AN$5&lt;=$G141+$H141-1),1,""))</f>
+        <f t="shared" ref="AN141:AW144" ca="1" si="81">IF(AND($D141="Goal",AN$5&gt;=$G141,AN$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",AN$5&gt;=$G141,AN$5&lt;=$G141+$H141-1),1,""))</f>
         <v/>
       </c>
       <c r="AO141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AP141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AQ141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AR141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AS141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AT141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AU141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AV141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AW141" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AX141" s="38" t="str">
-        <f t="shared" ref="AX141:BG144" ca="1" si="81">IF(AND($D141="Goal",AX$5&gt;=$G141,AX$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",AX$5&gt;=$G141,AX$5&lt;=$G141+$H141-1),1,""))</f>
+        <f t="shared" ref="AX141:BG144" ca="1" si="82">IF(AND($D141="Goal",AX$5&gt;=$G141,AX$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",AX$5&gt;=$G141,AX$5&lt;=$G141+$H141-1),1,""))</f>
         <v/>
       </c>
       <c r="AY141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AZ141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BA141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BB141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BC141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BD141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BE141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BF141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BG141" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BH141" s="38" t="str">
-        <f t="shared" ref="BH141:BM144" ca="1" si="82">IF(AND($D141="Goal",BH$5&gt;=$G141,BH$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",BH$5&gt;=$G141,BH$5&lt;=$G141+$H141-1),1,""))</f>
+        <f t="shared" ref="BH141:BM144" ca="1" si="83">IF(AND($D141="Goal",BH$5&gt;=$G141,BH$5&lt;=$G141+$H141-1),2,IF(AND($D141="Milestone",BH$5&gt;=$G141,BH$5&lt;=$G141+$H141-1),1,""))</f>
         <v/>
       </c>
       <c r="BI141" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BJ141" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BK141" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BL141" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BM141" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
     </row>
@@ -32251,227 +32266,227 @@
       <c r="H142" s="33"/>
       <c r="I142" s="26"/>
       <c r="J142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="K142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="M142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="N142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="O142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="P142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="Q142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="R142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="S142" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="T142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="U142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="V142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="W142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="X142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Y142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Z142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AA142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AB142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AC142" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AD142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AE142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AF142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AG142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AH142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AI142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AJ142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AK142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AL142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AM142" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AN142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AO142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AP142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AQ142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AR142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AS142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AT142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AU142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AV142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AW142" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AX142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AY142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AZ142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BA142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BB142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BC142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BD142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BE142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BF142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BG142" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BH142" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BI142" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BJ142" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BK142" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BL142" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BM142" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
     </row>
@@ -32486,227 +32501,227 @@
       <c r="H143" s="33"/>
       <c r="I143" s="26"/>
       <c r="J143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="K143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="M143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="N143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="O143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="P143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="Q143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="R143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="S143" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="T143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="U143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="V143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="W143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="X143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Y143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Z143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AA143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AB143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AC143" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AD143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AE143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AF143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AG143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AH143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AI143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AJ143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AK143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AL143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AM143" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AN143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AO143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AP143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AQ143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AR143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AS143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AT143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AU143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AV143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AW143" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AX143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AY143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AZ143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BA143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BB143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BC143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BD143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BE143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BF143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BG143" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BH143" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BI143" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BJ143" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BK143" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BL143" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BM143" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
     </row>
@@ -32723,227 +32738,227 @@
       <c r="H144" s="33"/>
       <c r="I144" s="26"/>
       <c r="J144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="K144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="M144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="N144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="O144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="P144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="Q144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="R144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="S144" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="T144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="U144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="V144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="W144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="X144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Y144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Z144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AA144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AB144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AC144" s="38" t="str">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AD144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AE144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AF144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AG144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AH144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AI144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AJ144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AK144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AL144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AM144" s="38" t="str">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AN144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AO144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AP144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AQ144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AR144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AS144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AT144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AU144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AV144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AW144" s="38" t="str">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AX144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AY144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AZ144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BA144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BB144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BC144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BD144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BE144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BF144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BG144" s="38" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BH144" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BI144" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BJ144" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BK144" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BL144" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BM144" s="38" t="str">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
     </row>
@@ -33054,56 +33069,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM8 J144:BM145 J125:BM125 J131:BM131 J74:BM75 J10:BM10 J22:BM58 J61:BM70 J72:BM72 J78:BM101 J120:BM122">
-    <cfRule type="expression" dxfId="71" priority="250">
+    <cfRule type="expression" dxfId="75" priority="250">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="70" priority="256">
+    <cfRule type="expression" dxfId="74" priority="256">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="69" priority="252">
+    <cfRule type="expression" dxfId="73" priority="252">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="68" priority="251">
+    <cfRule type="expression" dxfId="72" priority="251">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM144">
-    <cfRule type="expression" dxfId="67" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="273" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="292" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="310" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="311" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="312" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:BM145">
-    <cfRule type="expression" dxfId="62" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="320" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="321" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="322" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="323" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="324" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33122,24 +33137,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="57" priority="241">
+    <cfRule type="expression" dxfId="61" priority="241">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="56" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="243" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="244" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="245" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="246" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="247" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33158,7 +33173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:BM77 J102:BM117">
-    <cfRule type="expression" dxfId="51" priority="225">
+    <cfRule type="expression" dxfId="55" priority="225">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33177,7 +33192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J119:GC119">
-    <cfRule type="expression" dxfId="50" priority="216">
+    <cfRule type="expression" dxfId="54" priority="216">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33196,7 +33211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:BM118">
-    <cfRule type="expression" dxfId="49" priority="209">
+    <cfRule type="expression" dxfId="53" priority="209">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33215,7 +33230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:BM60">
-    <cfRule type="expression" dxfId="48" priority="201">
+    <cfRule type="expression" dxfId="52" priority="201">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33234,7 +33249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:GC127 J129:GC131 J134:GC134 J141:GC143">
-    <cfRule type="expression" dxfId="47" priority="185">
+    <cfRule type="expression" dxfId="51" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33253,7 +33268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:GC128">
-    <cfRule type="expression" dxfId="46" priority="177">
+    <cfRule type="expression" dxfId="50" priority="177">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33272,7 +33287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:GC124">
-    <cfRule type="expression" dxfId="45" priority="168">
+    <cfRule type="expression" dxfId="49" priority="168">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33291,7 +33306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:GC71">
-    <cfRule type="expression" dxfId="44" priority="160">
+    <cfRule type="expression" dxfId="48" priority="160">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33310,7 +33325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132:GC133">
-    <cfRule type="expression" dxfId="43" priority="144">
+    <cfRule type="expression" dxfId="47" priority="144">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33329,7 +33344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135:GC136">
-    <cfRule type="expression" dxfId="42" priority="136">
+    <cfRule type="expression" dxfId="46" priority="136">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33348,7 +33363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J139:GC139">
-    <cfRule type="expression" dxfId="41" priority="128">
+    <cfRule type="expression" dxfId="45" priority="128">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33367,7 +33382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140:GC140">
-    <cfRule type="expression" dxfId="40" priority="120">
+    <cfRule type="expression" dxfId="44" priority="120">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33386,7 +33401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:BM73">
-    <cfRule type="expression" dxfId="39" priority="104">
+    <cfRule type="expression" dxfId="43" priority="104">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33405,7 +33420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J138:BM138">
-    <cfRule type="expression" dxfId="38" priority="96">
+    <cfRule type="expression" dxfId="42" priority="96">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33424,7 +33439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:BM123">
-    <cfRule type="expression" dxfId="37" priority="64">
+    <cfRule type="expression" dxfId="41" priority="64">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33443,7 +33458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137:GC137">
-    <cfRule type="expression" dxfId="36" priority="72">
+    <cfRule type="expression" dxfId="40" priority="72">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33462,24 +33477,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="50" stopIfTrue="1">
       <formula>AND($D11="Low risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="51" stopIfTrue="1">
       <formula>AND($D11="High risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="52" stopIfTrue="1">
       <formula>AND($D11="On track",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
       <formula>AND($D11="Med risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="54" stopIfTrue="1">
       <formula>AND(LEN($D11)=0,J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33498,24 +33513,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="33" priority="40">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="28" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="42" stopIfTrue="1">
       <formula>AND($D12="Low risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
       <formula>AND($D12="High risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
       <formula>AND($D12="On track",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="45" stopIfTrue="1">
       <formula>AND($D12="Med risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
       <formula>AND(LEN($D12)=0,J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33534,24 +33549,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
       <formula>AND($D15="Low risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
       <formula>AND($D15="High risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
       <formula>AND($D15="On track",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
       <formula>AND($D15="Med risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
       <formula>AND(LEN($D15)=0,J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33570,46 +33585,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>AND($D16="Low risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
       <formula>AND($D16="High risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
       <formula>AND($D16="On track",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
       <formula>AND($D16="Med risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="30" stopIfTrue="1">
       <formula>AND(LEN($D16)=0,J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>AND($D19="Low risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
       <formula>AND($D19="High risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>AND($D19="On track",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>AND($D19="Med risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>AND(LEN($D19)=0,J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="6" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33628,19 +33643,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM21">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND($D20="Low risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>AND($D20="High risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
       <formula>AND($D20="On track",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>AND($D20="Med risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
       <formula>AND(LEN($D20)=0,J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33659,7 +33674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:GC21">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34217,6 +34232,36 @@
           <xm:sqref>F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93FCECEF-DB99-4EA8-91D2-D8A6C6E624D8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F104:F106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D607CC20-C44B-4AC0-8B40-FD9193B404DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F109</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="319" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -34691,36 +34736,6 @@
           </x14:cfRule>
           <xm:sqref>J20:BM21</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93FCECEF-DB99-4EA8-91D2-D8A6C6E624D8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F104:F106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D607CC20-C44B-4AC0-8B40-FD9193B404DB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F109</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
